--- a/bsd-api-dms-product/sample_product_v2_mamasuka.xlsx
+++ b/bsd-api-dms-product/sample_product_v2_mamasuka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B69E02-BBB8-4C9B-AEB0-0A8A882CD9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C5FD4-6C42-46D3-8366-693844160606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{298CAFA9-C02F-4F29-912E-23CDB1EC0819}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15045" xr2:uid="{298CAFA9-C02F-4F29-912E-23CDB1EC0819}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
